--- a/data/trans_orig/P79$alquiler_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79$alquiler_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>13068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7256</v>
+        <v>7794</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24189</v>
+        <v>24918</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02372863024419705</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0131765464282489</v>
+        <v>0.01415247794536767</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04392328224345609</v>
+        <v>0.04524689345513547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -762,19 +762,19 @@
         <v>19102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13327</v>
+        <v>12699</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27763</v>
+        <v>27104</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02448736827860747</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01708369017359221</v>
+        <v>0.01627928811842312</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03558891692929444</v>
+        <v>0.03474436155143572</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -783,19 +783,19 @@
         <v>32170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23393</v>
+        <v>23315</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45643</v>
+        <v>45735</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02417338897601159</v>
+        <v>0.0241733889760116</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01757816028867655</v>
+        <v>0.01751919807481414</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0342969370251358</v>
+        <v>0.03436612514591087</v>
       </c>
     </row>
     <row r="5">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4048</v>
+        <v>4588</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001690760395621818</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.005189568627664409</v>
+        <v>0.005880842925790363</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4625</v>
+        <v>4038</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0009910936518997006</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.003475066671061273</v>
+        <v>0.003033898790578564</v>
       </c>
     </row>
     <row r="6">
@@ -922,19 +922,19 @@
         <v>4821</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1623</v>
+        <v>1861</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10997</v>
+        <v>10641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008753264876298475</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002948001784993456</v>
+        <v>0.003379175724232729</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01996916647896923</v>
+        <v>0.01932195090494302</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -943,19 +943,19 @@
         <v>7256</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3951</v>
+        <v>3394</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13263</v>
+        <v>11949</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009301338799697094</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005065318196318571</v>
+        <v>0.004350541835200878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01700221972999371</v>
+        <v>0.01531786298668946</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -964,19 +964,19 @@
         <v>12076</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7314</v>
+        <v>6884</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20287</v>
+        <v>19485</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009074536055620345</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005495941759670532</v>
+        <v>0.005173170185745365</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01524437121060858</v>
+        <v>0.01464169486151343</v>
       </c>
     </row>
     <row r="8">
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4354</v>
+        <v>4441</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.001107213726915217</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.005580873493363275</v>
+        <v>0.005692489203997331</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0006490289806192809</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.00325043304072098</v>
+        <v>0.003250141457643384</v>
       </c>
     </row>
     <row r="9">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4507</v>
+        <v>5668</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001750006630166129</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.00818382198212167</v>
+        <v>0.01029282507006827</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1077,19 +1077,19 @@
         <v>1934</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5211</v>
+        <v>5150</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002478960574977992</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0007889011291281396</v>
+        <v>0.0007819672496468473</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.006680062063237765</v>
+        <v>0.00660125216103814</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1098,19 +1098,19 @@
         <v>2898</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7356</v>
+        <v>7473</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002177306458752769</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0005152169937955536</v>
+        <v>0.0005115889884390846</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005527757735570077</v>
+        <v>0.005615404804986908</v>
       </c>
     </row>
     <row r="10">
@@ -1127,19 +1127,19 @@
         <v>13101</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7568</v>
+        <v>7900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20621</v>
+        <v>21678</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02378856159860027</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01374191700753338</v>
+        <v>0.01434505607357993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03744436186141058</v>
+        <v>0.03936320748554277</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1148,19 +1148,19 @@
         <v>21310</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14888</v>
+        <v>14473</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29641</v>
+        <v>28977</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0273170048811292</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01908421500444157</v>
+        <v>0.01855329370130368</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03799666973691864</v>
+        <v>0.03714569006962589</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -1169,19 +1169,19 @@
         <v>34411</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25272</v>
+        <v>25774</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45196</v>
+        <v>45707</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02585687225187675</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01899031836427197</v>
+        <v>0.01936692485714027</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03396125102910458</v>
+        <v>0.03434514851357347</v>
       </c>
     </row>
     <row r="11">
@@ -1198,19 +1198,19 @@
         <v>438317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>417319</v>
+        <v>417836</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>455194</v>
+        <v>456599</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7959095180532157</v>
+        <v>0.7959095180532159</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7577802496338144</v>
+        <v>0.7587204726190211</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8265555823636981</v>
+        <v>0.8291064199615862</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1098</v>
@@ -1219,19 +1219,19 @@
         <v>610624</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>590316</v>
+        <v>592148</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>626046</v>
+        <v>630203</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7827546840909565</v>
+        <v>0.7827546840909566</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7567222711014782</v>
+        <v>0.7590710337379495</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8025247409027706</v>
+        <v>0.8078531490958961</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1637</v>
@@ -1240,19 +1240,19 @@
         <v>1048941</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1021302</v>
+        <v>1020376</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1075014</v>
+        <v>1074648</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7881983885131872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7674299887257091</v>
+        <v>0.7667340477856343</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8077908176340075</v>
+        <v>0.8075157183328866</v>
       </c>
     </row>
     <row r="12">
@@ -1269,19 +1269,19 @@
         <v>40063</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28976</v>
+        <v>28594</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58549</v>
+        <v>57033</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07274719243742014</v>
+        <v>0.07274719243742016</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05261612197806628</v>
+        <v>0.05192183452462611</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1063145296660089</v>
+        <v>0.103562881922671</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>90</v>
@@ -1290,19 +1290,19 @@
         <v>57589</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46822</v>
+        <v>46901</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70668</v>
+        <v>70326</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07382268261496293</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06002090619009399</v>
+        <v>0.06012203158777255</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09058865290375676</v>
+        <v>0.09014999606710751</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>129</v>
@@ -1311,19 +1311,19 @@
         <v>97652</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>80348</v>
+        <v>81037</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>116876</v>
+        <v>117843</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07337762563801041</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06037567229453727</v>
+        <v>0.06089338818574946</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08782300270862588</v>
+        <v>0.0885498657842963</v>
       </c>
     </row>
     <row r="13">
@@ -1340,19 +1340,19 @@
         <v>86643</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71366</v>
+        <v>71579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103085</v>
+        <v>103880</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1573282757712757</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1295887970020314</v>
+        <v>0.1299752514846676</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.18718416831295</v>
+        <v>0.1886278697608113</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>197</v>
@@ -1361,19 +1361,19 @@
         <v>128273</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112880</v>
+        <v>111294</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146671</v>
+        <v>145900</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1644328891146587</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1447006446679964</v>
+        <v>0.1426672485948401</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1880159877476621</v>
+        <v>0.1870285881082083</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>297</v>
@@ -1382,19 +1382,19 @@
         <v>214916</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>191875</v>
+        <v>190788</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>239852</v>
+        <v>239720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1614928736658456</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1441796800943332</v>
+        <v>0.1433623209542847</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1802302750962405</v>
+        <v>0.1801308669136058</v>
       </c>
     </row>
     <row r="14">
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6821</v>
+        <v>6686</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003530606399847772</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01238635908795259</v>
+        <v>0.0121398307671235</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1432,19 +1432,19 @@
         <v>1973</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5487</v>
+        <v>5727</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002529625212648447</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0007705146504434929</v>
+        <v>0.0007748307113402993</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007033511202979925</v>
+        <v>0.007341059394584078</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1453,19 +1453,19 @@
         <v>3918</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1378</v>
+        <v>1312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8480</v>
+        <v>9044</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.002943849043291984</v>
+        <v>0.002943849043291983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001035358901810196</v>
+        <v>0.0009861122096362978</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006372176809950087</v>
+        <v>0.006796090138458412</v>
       </c>
     </row>
     <row r="15">
@@ -1486,19 +1486,19 @@
         <v>45054</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>32784</v>
+        <v>33381</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>61254</v>
+        <v>62866</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02088736343267847</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01519894788100178</v>
+        <v>0.01547573158332989</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02839756272857328</v>
+        <v>0.02914508951330286</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>56</v>
@@ -1507,19 +1507,19 @@
         <v>57666</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>42950</v>
+        <v>43707</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>77439</v>
+        <v>80169</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02752921153704474</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02050385485670123</v>
+        <v>0.02086539882592424</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03696878658168173</v>
+        <v>0.03827229688707247</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>94</v>
@@ -1528,19 +1528,19 @@
         <v>102720</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>83027</v>
+        <v>81851</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>125366</v>
+        <v>125668</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.02415962824659019</v>
+        <v>0.02415962824659018</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01952782406876745</v>
+        <v>0.01925123450810926</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02948582089276752</v>
+        <v>0.02955684848687927</v>
       </c>
     </row>
     <row r="16">
@@ -1557,19 +1557,19 @@
         <v>8721</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3806</v>
+        <v>3541</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17069</v>
+        <v>17686</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004043212834244394</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001764418741094359</v>
+        <v>0.001641509511789694</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00791339077418376</v>
+        <v>0.008199435333593361</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1578,19 +1578,19 @@
         <v>5980</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2350</v>
+        <v>2816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10944</v>
+        <v>11196</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002854609759802013</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001121731048434034</v>
+        <v>0.00134441963403863</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.005224741429717048</v>
+        <v>0.005344752517318783</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1599,19 +1599,19 @@
         <v>14701</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8555</v>
+        <v>8460</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25002</v>
+        <v>25476</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00345761919267222</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00201207395202336</v>
+        <v>0.0019898292349054</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005880395151079509</v>
+        <v>0.005991985135031924</v>
       </c>
     </row>
     <row r="17">
@@ -1641,19 +1641,19 @@
         <v>3439</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11901</v>
+        <v>11837</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00164177739323734</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0002943140103311157</v>
+        <v>0.0002951984148932824</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.005681359623667308</v>
+        <v>0.005651078313925123</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1662,19 +1662,19 @@
         <v>3439</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10883</v>
+        <v>11973</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0008088607736504153</v>
+        <v>0.0008088607736504152</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0001440778167950798</v>
+        <v>0.0001446525548012131</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.002559577420253433</v>
+        <v>0.002816079936315099</v>
       </c>
     </row>
     <row r="18">
@@ -1691,19 +1691,19 @@
         <v>18421</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8902</v>
+        <v>9310</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34878</v>
+        <v>34756</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.008540054992235507</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.004127066152896083</v>
+        <v>0.004316340334776731</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01616952956913383</v>
+        <v>0.01611296989892147</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1712,19 +1712,19 @@
         <v>6048</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2722</v>
+        <v>2551</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13861</v>
+        <v>13083</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.002887357019211815</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001299263549087649</v>
+        <v>0.001218023231331393</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.006617204707727819</v>
+        <v>0.006245833938536583</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -1733,19 +1733,19 @@
         <v>24469</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14896</v>
+        <v>14718</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>42339</v>
+        <v>40440</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.005755118572410473</v>
+        <v>0.005755118572410472</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003503414258444217</v>
+        <v>0.003461615958583862</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.009958163436729181</v>
+        <v>0.009511419769467459</v>
       </c>
     </row>
     <row r="19">
@@ -1775,19 +1775,19 @@
         <v>4029</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1550</v>
+        <v>1481</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9552</v>
+        <v>9109</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001923573054481484</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0007397787203220024</v>
+        <v>0.0007071953520490416</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.00455981590917729</v>
+        <v>0.004348666352632135</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1796,19 +1796,19 @@
         <v>4029</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1478</v>
+        <v>1556</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9153</v>
+        <v>9303</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.000947694124325209</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0003475225756247251</v>
+        <v>0.0003658692492851376</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002152854290172478</v>
+        <v>0.002188037485848103</v>
       </c>
     </row>
     <row r="20">
@@ -1825,19 +1825,19 @@
         <v>25803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16725</v>
+        <v>17413</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37942</v>
+        <v>40888</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01196231662661494</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007753766252119691</v>
+        <v>0.008072923821233143</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01759022574329764</v>
+        <v>0.01895607291119545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -1846,19 +1846,19 @@
         <v>18777</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12236</v>
+        <v>11769</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27237</v>
+        <v>27826</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008963980364382071</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005841480493766853</v>
+        <v>0.005618461788717074</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01300257944880939</v>
+        <v>0.01328384686335406</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>47</v>
@@ -1867,19 +1867,19 @@
         <v>44580</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33371</v>
+        <v>33348</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61278</v>
+        <v>60393</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01048511478504763</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007848745934631611</v>
+        <v>0.00784341034152404</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01441257257881595</v>
+        <v>0.01420437442732781</v>
       </c>
     </row>
     <row r="21">
@@ -1896,19 +1896,19 @@
         <v>30432</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20163</v>
+        <v>20666</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>45616</v>
+        <v>46750</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01410833237871027</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00934750921962002</v>
+        <v>0.009580649273599515</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02114771244956373</v>
+        <v>0.02167367706420023</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -1917,19 +1917,19 @@
         <v>20711</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13268</v>
+        <v>13085</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31611</v>
+        <v>32074</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.009887199037009981</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006334202133199015</v>
+        <v>0.006246594533880214</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01509063608594353</v>
+        <v>0.01531177961808692</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -1938,19 +1938,19 @@
         <v>51143</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>38066</v>
+        <v>37756</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69070</v>
+        <v>69006</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0120286904037914</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008953135741592832</v>
+        <v>0.008880061066789281</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01624523474829762</v>
+        <v>0.01623013327503837</v>
       </c>
     </row>
     <row r="22">
@@ -1967,19 +1967,19 @@
         <v>1829576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1791201</v>
+        <v>1790862</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1865936</v>
+        <v>1863756</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8482002536990384</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8304093924342986</v>
+        <v>0.8302522772089421</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8650567832065954</v>
+        <v>0.8640462835696738</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2487</v>
@@ -1988,19 +1988,19 @@
         <v>1791743</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1755538</v>
+        <v>1759851</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1822331</v>
+        <v>1826346</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8553647861682662</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8380808456182317</v>
+        <v>0.8401397021467865</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8699673619621063</v>
+        <v>0.8718839500445793</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4147</v>
@@ -2009,19 +2009,19 @@
         <v>3621319</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3572153</v>
+        <v>3572043</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3673199</v>
+        <v>3673388</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8517300314263807</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8401661013674682</v>
+        <v>0.8401403720793378</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8639320690159171</v>
+        <v>0.863976630157436</v>
       </c>
     </row>
     <row r="23">
@@ -2038,19 +2038,19 @@
         <v>104060</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>83679</v>
+        <v>83789</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>130222</v>
+        <v>128213</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.04824249705364651</v>
+        <v>0.0482424970536465</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03879414901828625</v>
+        <v>0.03884514008566059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06037135344848157</v>
+        <v>0.05944007314808102</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>94</v>
@@ -2059,19 +2059,19 @@
         <v>78643</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>64296</v>
+        <v>61541</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>96323</v>
+        <v>94997</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.03754352896614032</v>
+        <v>0.03754352896614031</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03069421828174002</v>
+        <v>0.02937911521742965</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04598393424167674</v>
+        <v>0.04535070729271054</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>185</v>
@@ -2080,19 +2080,19 @@
         <v>182702</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>154147</v>
+        <v>156908</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>213008</v>
+        <v>213688</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04297139535607896</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03625518481520584</v>
+        <v>0.03690455428423647</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05009913472163321</v>
+        <v>0.05025907415361323</v>
       </c>
     </row>
     <row r="24">
@@ -2109,19 +2109,19 @@
         <v>194072</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>164261</v>
+        <v>165289</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>224809</v>
+        <v>226845</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08997269138348808</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07615205581104</v>
+        <v>0.07662877403420931</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1042225001384297</v>
+        <v>0.1051666326885658</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>224</v>
@@ -2130,19 +2130,19 @@
         <v>198426</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>171521</v>
+        <v>172891</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>227887</v>
+        <v>226736</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09472710662206058</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08188307125587643</v>
+        <v>0.08253696546723009</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1087917311779065</v>
+        <v>0.1082418865362328</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>396</v>
@@ -2151,19 +2151,19 @@
         <v>392498</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>352720</v>
+        <v>352923</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>435766</v>
+        <v>432042</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.09231506739863347</v>
+        <v>0.09231506739863349</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08295941466252715</v>
+        <v>0.08300696750330323</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1024916557170149</v>
+        <v>0.1016157130969879</v>
       </c>
     </row>
     <row r="25">
@@ -2180,19 +2180,19 @@
         <v>15659</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7270</v>
+        <v>6935</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30832</v>
+        <v>32114</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007259625117762452</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003370482906936802</v>
+        <v>0.003215004612174414</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01429386623309281</v>
+        <v>0.01488800211293832</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2201,19 +2201,19 @@
         <v>8589</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4156</v>
+        <v>4104</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15530</v>
+        <v>15463</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004100292979506617</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001984256931356452</v>
+        <v>0.001959125061722502</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007414135106428555</v>
+        <v>0.007381953930280009</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -2222,19 +2222,19 @@
         <v>24248</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13781</v>
+        <v>14476</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42687</v>
+        <v>39786</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00570310481964259</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003241381292307351</v>
+        <v>0.003404825590625151</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01003993610527668</v>
+        <v>0.009357513963664178</v>
       </c>
     </row>
     <row r="26">
@@ -2255,19 +2255,19 @@
         <v>7276</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2396</v>
+        <v>2463</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18086</v>
+        <v>17819</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01032536296147216</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003400844242182974</v>
+        <v>0.003495704781697646</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02566654998376078</v>
+        <v>0.02528818252237014</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -2276,19 +2276,19 @@
         <v>7387</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3286</v>
+        <v>3305</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14665</v>
+        <v>15012</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01030580644324643</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004584108852918996</v>
+        <v>0.004611173280931539</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02046024083737422</v>
+        <v>0.02094493352466323</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -2297,19 +2297,19 @@
         <v>14662</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8207</v>
+        <v>8348</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26809</v>
+        <v>28350</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01031550157053908</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00577406429811487</v>
+        <v>0.005873314377647058</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01886153168048615</v>
+        <v>0.01994552513002734</v>
       </c>
     </row>
     <row r="27">
@@ -2326,19 +2326,19 @@
         <v>4505</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10982</v>
+        <v>11348</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.006393027313304152</v>
+        <v>0.006393027313304151</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.001588796693356942</v>
+        <v>0.00159442900347313</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01558465384051479</v>
+        <v>0.01610470888007274</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4008</v>
+        <v>3726</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.00103189145190064</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.005592151019906452</v>
+        <v>0.005199105755835648</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5</v>
@@ -2368,19 +2368,19 @@
         <v>5244</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1858</v>
+        <v>1828</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>11759</v>
+        <v>11395</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.003689669999673568</v>
+        <v>0.003689669999673569</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.001307135072473968</v>
+        <v>0.001286403383736561</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.008273231379781738</v>
+        <v>0.008016857548991025</v>
       </c>
     </row>
     <row r="28">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6724</v>
+        <v>8565</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.001603079365394311</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.009542161790545695</v>
+        <v>0.01215442609901253</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2465,19 +2465,19 @@
         <v>4429</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1427</v>
+        <v>1609</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9147</v>
+        <v>8961</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.00618005100735052</v>
+        <v>0.006180051007350519</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001990398305389778</v>
+        <v>0.002244225783250708</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01276168669519343</v>
+        <v>0.01250188853668222</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -2486,19 +2486,19 @@
         <v>5559</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2281</v>
+        <v>2091</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11471</v>
+        <v>10768</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.003911021205040746</v>
+        <v>0.003911021205040747</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00160444299788065</v>
+        <v>0.001471065310287151</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.008070002499111306</v>
+        <v>0.007575491507170024</v>
       </c>
     </row>
     <row r="30">
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6724</v>
+        <v>8565</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.001603079365394311</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.009542161790545695</v>
+        <v>0.01215442609901253</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5688</v>
+        <v>5729</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.0007947252332096343</v>
+        <v>0.0007947252332096344</v>
       </c>
       <c r="V30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.004001624942946478</v>
+        <v>0.004030564083625734</v>
       </c>
     </row>
     <row r="31">
@@ -2578,19 +2578,19 @@
         <v>7975</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3409</v>
+        <v>3363</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15865</v>
+        <v>15972</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01131770757641736</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.004837305489302112</v>
+        <v>0.004773215812681603</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02251491378675748</v>
+        <v>0.02266709371043989</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2599,19 +2599,19 @@
         <v>4788</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1895</v>
+        <v>1764</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9911</v>
+        <v>10856</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.006680774432657116</v>
+        <v>0.006680774432657115</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00264352429829219</v>
+        <v>0.002461634753804307</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01382735131264556</v>
+        <v>0.01514662523357244</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>13</v>
@@ -2620,19 +2620,19 @@
         <v>12763</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7126</v>
+        <v>7235</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>20827</v>
+        <v>22420</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.008979530098535155</v>
+        <v>0.008979530098535157</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.005013574835368921</v>
+        <v>0.00508979084133033</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01465292046168183</v>
+        <v>0.0157736473214723</v>
       </c>
     </row>
     <row r="32">
@@ -2652,16 +2652,16 @@
         <v>1102</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10128</v>
+        <v>10208</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.00479005534530078</v>
+        <v>0.004790055345300779</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001564308463845276</v>
+        <v>0.001563349717628096</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01437355397955505</v>
+        <v>0.01448632386951231</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2670,19 +2670,19 @@
         <v>2485</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7332</v>
+        <v>6669</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.00346646553121528</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0009778043040717787</v>
+        <v>0.0009617207403678518</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01022965110146845</v>
+        <v>0.0093046758917575</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -2691,19 +2691,19 @@
         <v>5860</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2214</v>
+        <v>2232</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12704</v>
+        <v>12981</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.004122634056854221</v>
+        <v>0.004122634056854222</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001557830182036964</v>
+        <v>0.001570478684220645</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.008937463283423821</v>
+        <v>0.009132574865321472</v>
       </c>
     </row>
     <row r="33">
@@ -2720,19 +2720,19 @@
         <v>663291</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>648049</v>
+        <v>647573</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>675390</v>
+        <v>675055</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9413051500399056</v>
+        <v>0.9413051500399054</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9196749389826629</v>
+        <v>0.9189999497329361</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9584753685628591</v>
+        <v>0.9579998065337109</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>925</v>
@@ -2741,19 +2741,19 @@
         <v>670339</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>656206</v>
+        <v>655800</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>681460</v>
+        <v>682425</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.9352693389173063</v>
+        <v>0.9352693389173061</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.9155500862152175</v>
+        <v>0.9149832151150712</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.950785126581538</v>
+        <v>0.9521308484681548</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1564</v>
@@ -2762,19 +2762,19 @@
         <v>1333630</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1312952</v>
+        <v>1310998</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1349665</v>
+        <v>1349605</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.9382615871525252</v>
+        <v>0.9382615871525255</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.9237136663670619</v>
+        <v>0.9223393823474706</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.9495431245978883</v>
+        <v>0.9495003975080406</v>
       </c>
     </row>
     <row r="34">
@@ -2791,19 +2791,19 @@
         <v>13485</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6338</v>
+        <v>7059</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>25535</v>
+        <v>25531</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.01913677394413284</v>
+        <v>0.01913677394413283</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008994180343140366</v>
+        <v>0.01001783957921577</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03623802623703334</v>
+        <v>0.03623161932682922</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -2812,19 +2812,19 @@
         <v>8719</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4246</v>
+        <v>4075</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15558</v>
+        <v>15999</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01216509241600081</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005924492691761553</v>
+        <v>0.005685625665170405</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02170633303457912</v>
+        <v>0.02232210279057819</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>20</v>
@@ -2833,19 +2833,19 @@
         <v>22204</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>13291</v>
+        <v>13364</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>35201</v>
+        <v>36331</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.01562129760952546</v>
+        <v>0.01562129760952547</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009350940918827879</v>
+        <v>0.00940216768954534</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02476550930334615</v>
+        <v>0.02556035121425004</v>
       </c>
     </row>
     <row r="35">
@@ -2862,19 +2862,19 @@
         <v>12974</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7464</v>
+        <v>7257</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>22877</v>
+        <v>21109</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01841237537260932</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01059205100111706</v>
+        <v>0.01029813082850731</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0324654505408597</v>
+        <v>0.02995675240337634</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>33</v>
@@ -2883,19 +2883,19 @@
         <v>27053</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>18233</v>
+        <v>19210</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>38198</v>
+        <v>39008</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.03774520543267469</v>
+        <v>0.03774520543267468</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02543958305481985</v>
+        <v>0.02680275961222995</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05329411427307855</v>
+        <v>0.05442497335000464</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>47</v>
@@ -2904,19 +2904,19 @@
         <v>40028</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30059</v>
+        <v>29810</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>55108</v>
+        <v>54665</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02816097135808256</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02114745416084384</v>
+        <v>0.02097231749872261</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03877063921714584</v>
+        <v>0.03845922594883298</v>
       </c>
     </row>
     <row r="36">
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6871</v>
+        <v>5769</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001620176790909389</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.009751424465863537</v>
+        <v>0.00818689535016745</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -2957,16 +2957,16 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5621</v>
+        <v>7510</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.002219114192501934</v>
+        <v>0.002219114192501933</v>
       </c>
       <c r="O36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.007842400358290728</v>
+        <v>0.01047787410529414</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -2975,19 +2975,19 @@
         <v>2732</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7655</v>
+        <v>8234</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001922191484597495</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0005360602558745701</v>
+        <v>0.000537562443633772</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.005385339968719271</v>
+        <v>0.005793147192311956</v>
       </c>
     </row>
     <row r="37">
@@ -3008,19 +3008,19 @@
         <v>65398</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>50722</v>
+        <v>49571</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>85142</v>
+        <v>87211</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01916486897784482</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01486406713188754</v>
+        <v>0.01452679360392424</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02495101629575946</v>
+        <v>0.02555740298876177</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>92</v>
@@ -3029,19 +3029,19 @@
         <v>84155</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>66762</v>
+        <v>66323</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>104116</v>
+        <v>105506</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02343138142178972</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01858862835201419</v>
+        <v>0.0184663611792026</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02898913094775856</v>
+        <v>0.0293761058299371</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>147</v>
@@ -3050,19 +3050,19 @@
         <v>149552</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>124054</v>
+        <v>126244</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>177457</v>
+        <v>178607</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02135269708276756</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01771211018696318</v>
+        <v>0.01802473742283591</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0253368380775454</v>
+        <v>0.02550099839567846</v>
       </c>
     </row>
     <row r="38">
@@ -3079,19 +3079,19 @@
         <v>13226</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>6801</v>
+        <v>6960</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>23183</v>
+        <v>23383</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.003875924405702987</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.001993044511528013</v>
+        <v>0.002039619650283285</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.006793847681882732</v>
+        <v>0.006852477637511798</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>11</v>
@@ -3100,19 +3100,19 @@
         <v>8038</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4231</v>
+        <v>4305</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>14271</v>
+        <v>13877</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.002238072784870218</v>
+        <v>0.002238072784870219</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001178075274287737</v>
+        <v>0.001198545471980876</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.003973637961520686</v>
+        <v>0.003863869983203266</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>22</v>
@@ -3121,19 +3121,19 @@
         <v>21264</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>13922</v>
+        <v>13519</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>32324</v>
+        <v>31725</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.00303604924892553</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.001987722903553625</v>
+        <v>0.001930224724744615</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.004615174526695552</v>
+        <v>0.004529606898044948</v>
       </c>
     </row>
     <row r="39">
@@ -3163,19 +3163,19 @@
         <v>3439</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>12238</v>
+        <v>10979</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.0009575415544333579</v>
+        <v>0.000957541554433358</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0001707023242043004</v>
+        <v>0.0001704269183467836</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.003407489596887457</v>
+        <v>0.003056977553108561</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3</v>
@@ -3184,19 +3184,19 @@
         <v>3439</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>11474</v>
+        <v>12533</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0004910184493646265</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>8.787478041952378e-05</v>
+        <v>8.730593183093235e-05</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.0016381942574152</v>
+        <v>0.001789402788436681</v>
       </c>
     </row>
     <row r="40">
@@ -3213,19 +3213,19 @@
         <v>24371</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>14276</v>
+        <v>14121</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>43315</v>
+        <v>42178</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.007141988869976594</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004183714033541266</v>
+        <v>0.004138031922953104</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01269339660199906</v>
+        <v>0.01236019711783009</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>24</v>
@@ -3234,19 +3234,19 @@
         <v>17734</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>11333</v>
+        <v>11628</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>26508</v>
+        <v>26796</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.004937592785421082</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003155391576740319</v>
+        <v>0.003237741484651856</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.00738069602767736</v>
+        <v>0.007460936231107208</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>42</v>
@@ -3255,19 +3255,19 @@
         <v>42105</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>29533</v>
+        <v>29785</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>59638</v>
+        <v>59491</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.006011594954211308</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004216703526431015</v>
+        <v>0.004252664042978762</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008514892189555442</v>
+        <v>0.008494028663666374</v>
       </c>
     </row>
     <row r="41">
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6873</v>
+        <v>6277</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0003310335651493207</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.002014232464337083</v>
+        <v>0.001839525567480921</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -3305,19 +3305,19 @@
         <v>4893</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>10535</v>
+        <v>10142</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.001362385457014123</v>
+        <v>0.001362385457014124</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0004832483633939095</v>
+        <v>0.0004827971539196997</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.002933390853301639</v>
+        <v>0.002823901758157651</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>7</v>
@@ -3326,19 +3326,19 @@
         <v>6023</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2555</v>
+        <v>2238</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>12145</v>
+        <v>12131</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0008599012726112785</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0003647308560607303</v>
+        <v>0.0003195087972846906</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.001734091847901765</v>
+        <v>0.001732102539724215</v>
       </c>
     </row>
     <row r="42">
@@ -3355,19 +3355,19 @@
         <v>34742</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>24261</v>
+        <v>23880</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>49387</v>
+        <v>48253</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01018107241961567</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.007109783442359757</v>
+        <v>0.006998004643966462</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01447291799355634</v>
+        <v>0.01414070441481982</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>33</v>
@@ -3376,19 +3376,19 @@
         <v>25499</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>18338</v>
+        <v>17942</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>35200</v>
+        <v>35561</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.007099769950453301</v>
+        <v>0.007099769950453302</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.005106003472479859</v>
+        <v>0.004995520016494833</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.009800794522462479</v>
+        <v>0.00990141557505554</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>64</v>
@@ -3397,19 +3397,19 @@
         <v>60241</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>46802</v>
+        <v>47432</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>77653</v>
+        <v>77705</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.008601009023487829</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.006682206717031449</v>
+        <v>0.00677216683485924</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.0110870946454458</v>
+        <v>0.01109448723941054</v>
       </c>
     </row>
     <row r="43">
@@ -3426,19 +3426,19 @@
         <v>46908</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>34041</v>
+        <v>34512</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>62366</v>
+        <v>62330</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01374638416775366</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.009975904454895991</v>
+        <v>0.01011371282247552</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01827654988253627</v>
+        <v>0.01826597287426997</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>60</v>
@@ -3447,19 +3447,19 @@
         <v>44505</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>34169</v>
+        <v>34855</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>57582</v>
+        <v>57366</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01239168499982905</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.009513633714556224</v>
+        <v>0.009704671833050722</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01603273152664343</v>
+        <v>0.01597259570600087</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>106</v>
@@ -3468,19 +3468,19 @@
         <v>91413</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>74222</v>
+        <v>73112</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>111198</v>
+        <v>113720</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01305170696893117</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01059716245375288</v>
+        <v>0.01043876029384996</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01587661655003163</v>
+        <v>0.01623665243883173</v>
       </c>
     </row>
     <row r="44">
@@ -3497,19 +3497,19 @@
         <v>2931184</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2885361</v>
+        <v>2886150</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2974553</v>
+        <v>2975763</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8589872384646003</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8455587502648048</v>
+        <v>0.845790031480903</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8716964997012954</v>
+        <v>0.8720510824653293</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>4510</v>
@@ -3518,19 +3518,19 @@
         <v>3072706</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3036554</v>
+        <v>3033294</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3110549</v>
+        <v>3108849</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8555394867507619</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8454734863768983</v>
+        <v>0.8445659900903599</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8660761964321132</v>
+        <v>0.8656029891326766</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>7348</v>
@@ -3539,19 +3539,19 @@
         <v>6003890</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5942031</v>
+        <v>5939517</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>6061493</v>
+        <v>6061307</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.857219263286411</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8483872259536821</v>
+        <v>0.8480282791805188</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8654436536299748</v>
+        <v>0.8654170754675543</v>
       </c>
     </row>
     <row r="45">
@@ -3568,19 +3568,19 @@
         <v>157607</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>131147</v>
+        <v>131118</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>186774</v>
+        <v>185398</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0461869450150425</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.03843286977504599</v>
+        <v>0.03842432352856723</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.05473438674204947</v>
+        <v>0.05433115235768835</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>194</v>
@@ -3589,19 +3589,19 @@
         <v>144951</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>125104</v>
+        <v>125544</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>166697</v>
+        <v>166384</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.04035893271026986</v>
+        <v>0.04035893271026987</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03483296778548984</v>
+        <v>0.03495547802850699</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.0464138082678489</v>
+        <v>0.04632653033519586</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>334</v>
@@ -3610,19 +3610,19 @@
         <v>302558</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>270575</v>
+        <v>270492</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>341941</v>
+        <v>341060</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0431983942294206</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03863194900894423</v>
+        <v>0.03862019017076888</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.04882139739391368</v>
+        <v>0.04869559667229525</v>
       </c>
     </row>
     <row r="46">
@@ -3639,19 +3639,19 @@
         <v>293689</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>260332</v>
+        <v>260961</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>329534</v>
+        <v>329194</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.08606590093535946</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07629058817425279</v>
+        <v>0.07647492046060354</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.09657029300920554</v>
+        <v>0.09647064833665174</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>454</v>
@@ -3660,19 +3660,19 @@
         <v>353753</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>322395</v>
+        <v>323138</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>384977</v>
+        <v>390396</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.09849605856059469</v>
+        <v>0.09849605856059471</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.08976512613789574</v>
+        <v>0.08997181934687284</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1071899448569965</v>
+        <v>0.1086987511011243</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>740</v>
@@ -3681,19 +3681,19 @@
         <v>647442</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>602378</v>
+        <v>599875</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>696786</v>
+        <v>701039</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.09243997075430609</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.08600594504539789</v>
+        <v>0.08564850930991251</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09948518415541391</v>
+        <v>0.1000924629382763</v>
       </c>
     </row>
     <row r="47">
@@ -3710,19 +3710,19 @@
         <v>18745</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>9793</v>
+        <v>9956</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>36481</v>
+        <v>36190</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.005493272325229235</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.002869767860209914</v>
+        <v>0.002917492482395004</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0106907794050356</v>
+        <v>0.01060563557635142</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>15</v>
@@ -3731,19 +3731,19 @@
         <v>12153</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>6600</v>
+        <v>6833</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>20416</v>
+        <v>19986</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.003383727083754147</v>
+        <v>0.003383727083754148</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.001837527040807796</v>
+        <v>0.001902630519226929</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.005684358370065034</v>
+        <v>0.005564666752171437</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>28</v>
@@ -3752,19 +3752,19 @@
         <v>30898</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>20287</v>
+        <v>20786</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>49331</v>
+        <v>48724</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.004411517044178699</v>
+        <v>0.0044115170441787</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.002896593458485797</v>
+        <v>0.00296776762036599</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.00704331433235518</v>
+        <v>0.006956681353712885</v>
       </c>
     </row>
     <row r="48">
